--- a/biology/Botanique/Sainte-foy-bordeaux/Sainte-foy-bordeaux.xlsx
+++ b/biology/Botanique/Sainte-foy-bordeaux/Sainte-foy-bordeaux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le sainte-foy-bordeaux[1] est un vin français d'appellation d'origine contrôlée produit sur la partie orientale du vignoble de l'Entre-deux-Mers.
+Le sainte-foy-bordeaux est un vin français d'appellation d'origine contrôlée produit sur la partie orientale du vignoble de l'Entre-deux-Mers.
 </t>
         </is>
       </c>
@@ -514,10 +526,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Aire d'appellation
-Caplong, Eynesse, Gensac, Landerrouat, Les Lèves-et-Thoumeyragues, Ligueux, Margueron, Massugas, Pellegrue, Pessac-sur-Dordogne, Pineuilh, Riocaud, La Roquille, Saint-André-et-Appelles, Saint-Avit-de-Soulège, Saint-Avit-Saint-Nazaire, Saint-Philippe-du-Seignal, Saint-Quentin-de-Caplong et Sainte-Foy-la-Grande.
-Rendements
-60 à 72 hl/ha pour les blancs ;
+          <t>Aire d'appellation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Caplong, Eynesse, Gensac, Landerrouat, Les Lèves-et-Thoumeyragues, Ligueux, Margueron, Massugas, Pellegrue, Pessac-sur-Dordogne, Pineuilh, Riocaud, La Roquille, Saint-André-et-Appelles, Saint-Avit-de-Soulège, Saint-Avit-Saint-Nazaire, Saint-Philippe-du-Seignal, Saint-Quentin-de-Caplong et Sainte-Foy-la-Grande.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Sainte-foy-bordeaux</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sainte-foy-bordeaux</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Rendements</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>60 à 72 hl/ha pour les blancs ;
 50 à 65 hl/ha pour les rouges ;
 45 à 55 hl/ha pour les moelleux ;
 37 à 40 hl/ha pour les liquoreux.</t>
